--- a/data (public)/basic_age_mod.xlsx
+++ b/data (public)/basic_age_mod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla121\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rla121\Dropbox\KP\Individual KP\Code\KP Code\kp-age\data (public)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4618CE-2FF6-49F1-B96C-99489A38EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13DACF0-AF16-401E-A1E5-F50C60CAD12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F66B8B82-0D33-4DD8-9378-B056598C1676}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="32">
   <si>
     <t>Ethiopia</t>
   </si>
@@ -102,6 +102,36 @@
   </si>
   <si>
     <t>Gambia</t>
+  </si>
+  <si>
+    <t>Adama</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>survey_id</t>
+  </si>
+  <si>
+    <t>ETH_2014</t>
+  </si>
+  <si>
+    <t>ERI_2006</t>
+  </si>
+  <si>
+    <t>GHA_2011</t>
+  </si>
+  <si>
+    <t>ETH_2009</t>
+  </si>
+  <si>
+    <t>GMB_2011</t>
+  </si>
+  <si>
+    <t>GHA_2014</t>
+  </si>
+  <si>
+    <t>GHA_2017</t>
   </si>
 </sst>
 </file>
@@ -158,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BAAE32-3624-47E6-9F9A-7515C0A65231}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -507,8 +537,11 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +567,11 @@
       <c r="H2" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,8 +597,11 @@
       <c r="H3" s="2">
         <v>312</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +627,11 @@
       <c r="H4" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,8 +657,11 @@
       <c r="H5" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +687,11 @@
       <c r="H6" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,8 +714,11 @@
       <c r="H7" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,8 +744,11 @@
       <c r="H8" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -720,8 +774,11 @@
       <c r="H9" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -747,8 +804,11 @@
       <c r="H10" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,8 +834,11 @@
       <c r="H11" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -801,8 +864,11 @@
       <c r="H12" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -828,8 +894,11 @@
       <c r="H13" s="2">
         <v>646</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,8 +924,11 @@
       <c r="H14" s="1">
         <v>1147</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -882,8 +954,11 @@
       <c r="H15" s="2">
         <v>794</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,6 +984,9 @@
       <c r="H16" s="1">
         <v>353</v>
       </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -936,6 +1014,9 @@
       <c r="H17" s="2">
         <v>258</v>
       </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -960,6 +1041,9 @@
       <c r="H18" s="1">
         <v>169</v>
       </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -987,7 +1071,9 @@
       <c r="H19" s="1">
         <v>11</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1005,7 +1091,7 @@
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" s="2">
@@ -1015,7 +1101,9 @@
       <c r="H20" s="2">
         <v>48</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1043,7 +1131,9 @@
       <c r="H21" s="1">
         <v>73</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1061,7 +1151,7 @@
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>4</v>
       </c>
       <c r="G22" s="2">
@@ -1071,7 +1161,9 @@
       <c r="H22" s="2">
         <v>57</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1099,7 +1191,9 @@
       <c r="H23" s="1">
         <v>36</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1117,7 +1211,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" s="2">
@@ -1127,7 +1221,459 @@
       <c r="H24" s="2">
         <v>15</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f>H25/(SUM(H25:H29))</f>
+        <v>0.18656716417910449</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>H26/(SUM(H25:H29))</f>
+        <v>0.58208955223880599</v>
+      </c>
+      <c r="H26" s="2">
+        <v>312</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <f>H27/(SUM(H25:H29))</f>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <f>H28/(SUM(H25:H29))</f>
+        <v>0.13805970149253732</v>
+      </c>
+      <c r="H28" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <f>H29/(SUM(H25:H29))</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <f>H30/(SUM(H30:H34))</f>
+        <v>0.20314465408805032</v>
+      </c>
+      <c r="H30" s="2">
+        <v>646</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <f>H31/(SUM(H30:H34))</f>
+        <v>0.27987421383647798</v>
+      </c>
+      <c r="H31" s="1">
+        <v>890</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <f>H32/(SUM(H30:H34))</f>
+        <v>0.24968553459119497</v>
+      </c>
+      <c r="H32" s="2">
+        <v>794</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <f>H33/(SUM(H30:H34))</f>
+        <v>0.17295597484276728</v>
+      </c>
+      <c r="H33" s="1">
+        <v>550</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <f>H34/(SUM(H30:H34))</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>300</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <f>H35/(SUM(H35:H39))</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="H35" s="2">
+        <v>800</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <f>H36/(SUM(H35:H39))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H36" s="1">
+        <v>900</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <f>H37/(SUM(H35:H39))</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <f>H38/(SUM(H35:H39))</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="H38" s="1">
+        <v>400</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <f>H39/(SUM(H35:H39))</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>200</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
